--- a/sabr_plan_report/SABR_Plan_Report_Testing/SABR Plan Evaluation Worksheet BLANK For testing.xlsx
+++ b/sabr_plan_report/SABR_Plan_Report_Testing/SABR Plan Evaluation Worksheet BLANK For testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="16770" yWindow="-30" windowWidth="10065" windowHeight="11790" tabRatio="893" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="16770" yWindow="-30" windowWidth="10065" windowHeight="11790" tabRatio="893" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EvaluationSheet 48Gy4F 60Gy5F" sheetId="16" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="EvaluationSheet 54Gy 3F" sheetId="26" r:id="rId3"/>
     <sheet name="Calculations 48Gy4F_ or_ 60Gy5F" sheetId="24" r:id="rId4"/>
     <sheet name="Calculations 60Gy_8F" sheetId="21" r:id="rId5"/>
-    <sheet name="RTOG Conformality Table" sheetId="20" r:id="rId6"/>
-    <sheet name="Calculations 54Gy 3F" sheetId="25" r:id="rId7"/>
+    <sheet name="Calculations 54Gy 3F" sheetId="25" r:id="rId6"/>
+    <sheet name="RTOG Conformality Table" sheetId="20" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="B">#REF!</definedName>
@@ -235,6 +235,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/V</t>
     </r>
@@ -273,6 +274,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/V</t>
     </r>
@@ -688,6 +690,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (cc) =</t>
     </r>
@@ -709,6 +712,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - PTV (cc) =</t>
     </r>
@@ -1178,6 +1182,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 10cc</t>
     </r>
@@ -1220,6 +1225,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1236,6 +1242,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 1cc</t>
     </r>
@@ -1411,6 +1418,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 5cc</t>
     </r>
@@ -1690,6 +1698,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/V</t>
     </r>
@@ -2076,6 +2085,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 5cc</t>
     </r>
@@ -2098,6 +2108,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2335,6 +2346,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2941,7 +2953,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3649,9 +3661,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3776,6 +3785,17 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3976,6 +3996,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4382,11 +4405,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126857600"/>
-        <c:axId val="126859520"/>
+        <c:axId val="175897920"/>
+        <c:axId val="207083712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126857600"/>
+        <c:axId val="175897920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="165"/>
@@ -4476,12 +4499,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126859520"/>
+        <c:crossAx val="207083712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126859520"/>
+        <c:axId val="207083712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -4579,7 +4602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126857600"/>
+        <c:crossAx val="175897920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5067,7 +5090,7 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5085,8 +5108,8 @@
     <col min="11" max="11" width="14.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="2" customWidth="1"/>
-    <col min="15" max="15" width="38.85546875" style="321" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="322" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.85546875" style="320" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="321" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5106,7 +5129,7 @@
       <c r="K1" s="215"/>
       <c r="L1" s="215"/>
       <c r="M1" s="88"/>
-      <c r="O1" s="308"/>
+      <c r="O1" s="307"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="83"/>
@@ -5123,7 +5146,7 @@
       <c r="K2" s="85"/>
       <c r="L2" s="87"/>
       <c r="M2" s="88"/>
-      <c r="O2" s="308"/>
+      <c r="O2" s="307"/>
     </row>
     <row r="3" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="90"/>
@@ -5140,7 +5163,7 @@
       <c r="K3" s="92"/>
       <c r="L3" s="94"/>
       <c r="M3" s="88"/>
-      <c r="O3" s="308"/>
+      <c r="O3" s="307"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="95"/>
@@ -5167,11 +5190,11 @@
         <v>68</v>
       </c>
       <c r="M4" s="88"/>
-      <c r="O4" s="309" t="str">
+      <c r="O4" s="308" t="str">
         <f>C4</f>
         <v>Patient:</v>
       </c>
-      <c r="P4" s="314" t="str">
+      <c r="P4" s="313" t="str">
         <f>D4</f>
         <v>??</v>
       </c>
@@ -5201,11 +5224,11 @@
         <v>68</v>
       </c>
       <c r="M5" s="88"/>
-      <c r="O5" s="309" t="str">
+      <c r="O5" s="308" t="str">
         <f>C5</f>
         <v>CR#:</v>
       </c>
-      <c r="P5" s="323" t="str">
+      <c r="P5" s="322" t="str">
         <f>D5</f>
         <v>??</v>
       </c>
@@ -5225,11 +5248,11 @@
       <c r="K6" s="85"/>
       <c r="L6" s="87"/>
       <c r="M6" s="88"/>
-      <c r="O6" s="309" t="str">
+      <c r="O6" s="308" t="str">
         <f>K4</f>
         <v>Site:</v>
       </c>
-      <c r="P6" s="314" t="str">
+      <c r="P6" s="313" t="str">
         <f>L4</f>
         <v>??</v>
       </c>
@@ -5251,11 +5274,11 @@
       <c r="K7" s="98"/>
       <c r="L7" s="101"/>
       <c r="M7" s="88"/>
-      <c r="O7" s="309" t="str">
+      <c r="O7" s="308" t="str">
         <f>K5</f>
         <v>Plan Name:</v>
       </c>
-      <c r="P7" s="314" t="str">
+      <c r="P7" s="313" t="str">
         <f>L5</f>
         <v>??</v>
       </c>
@@ -5277,11 +5300,11 @@
       <c r="K8" s="98"/>
       <c r="L8" s="101"/>
       <c r="M8" s="88"/>
-      <c r="O8" s="309" t="str">
+      <c r="O8" s="308" t="str">
         <f>F4</f>
         <v>Prescription Dose (cGy):</v>
       </c>
-      <c r="P8" s="314" t="str">
+      <c r="P8" s="313" t="str">
         <f>H4</f>
         <v>??</v>
       </c>
@@ -5303,11 +5326,11 @@
       <c r="K9" s="98"/>
       <c r="L9" s="101"/>
       <c r="M9" s="88"/>
-      <c r="O9" s="309" t="str">
+      <c r="O9" s="308" t="str">
         <f>F5</f>
         <v>Fractions:</v>
       </c>
-      <c r="P9" s="314" t="str">
+      <c r="P9" s="313" t="str">
         <f>H5</f>
         <v>??</v>
       </c>
@@ -5329,11 +5352,11 @@
       <c r="K10" s="92"/>
       <c r="L10" s="94"/>
       <c r="M10" s="88"/>
-      <c r="O10" s="309" t="str">
+      <c r="O10" s="308" t="str">
         <f>C7</f>
         <v>GTV Volume (cc)</v>
       </c>
-      <c r="P10" s="314" t="str">
+      <c r="P10" s="313" t="str">
         <f>G7</f>
         <v>??</v>
       </c>
@@ -5361,11 +5384,11 @@
         <v>37</v>
       </c>
       <c r="M11" s="88"/>
-      <c r="O11" s="309" t="str">
+      <c r="O11" s="308" t="str">
         <f>C8</f>
         <v>ITV Volume (cc):</v>
       </c>
-      <c r="P11" s="315" t="str">
+      <c r="P11" s="314" t="str">
         <f>G8</f>
         <v>??</v>
       </c>
@@ -5393,11 +5416,11 @@
       <c r="M12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="309" t="str">
+      <c r="O12" s="308" t="str">
         <f>C9</f>
         <v>PTV Volume (cc)</v>
       </c>
-      <c r="P12" s="316" t="str">
+      <c r="P12" s="315" t="str">
         <f>G9</f>
         <v>??</v>
       </c>
@@ -5419,11 +5442,11 @@
       </c>
       <c r="L13" s="101"/>
       <c r="M13" s="88"/>
-      <c r="O13" s="309" t="str">
+      <c r="O13" s="308" t="str">
         <f>C10</f>
         <v>Total Lung Volume (cc)</v>
       </c>
-      <c r="P13" s="315" t="str">
+      <c r="P13" s="314" t="str">
         <f>G10</f>
         <v>??</v>
       </c>
@@ -5452,11 +5475,11 @@
       <c r="M14" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="O14" s="309" t="str">
+      <c r="O14" s="308" t="str">
         <f>C14</f>
         <v>Plan Normalization Value (%)</v>
       </c>
-      <c r="P14" s="317" t="str">
+      <c r="P14" s="316" t="str">
         <f>G14</f>
         <v>??</v>
       </c>
@@ -5487,11 +5510,11 @@
       <c r="M15" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O15" s="309" t="str">
+      <c r="O15" s="308" t="str">
         <f>C15</f>
         <v>Dose @COM-PTV (%)</v>
       </c>
-      <c r="P15" s="317" t="str">
+      <c r="P15" s="316" t="str">
         <f>G15</f>
         <v>??</v>
       </c>
@@ -5511,11 +5534,11 @@
       <c r="K16" s="120"/>
       <c r="L16" s="11"/>
       <c r="M16" s="88"/>
-      <c r="O16" s="309" t="str">
+      <c r="O16" s="308" t="str">
         <f>C17</f>
         <v>PTV- Minimum Dose (%)</v>
       </c>
-      <c r="P16" s="315" t="str">
+      <c r="P16" s="314" t="str">
         <f>G17</f>
         <v>??</v>
       </c>
@@ -5542,11 +5565,11 @@
         <v>??</v>
       </c>
       <c r="M17" s="88"/>
-      <c r="O17" s="309" t="str">
+      <c r="O17" s="308" t="str">
         <f>C18</f>
         <v>PTV - V100(%)</v>
       </c>
-      <c r="P17" s="315" t="str">
+      <c r="P17" s="314" t="str">
         <f>G18</f>
         <v>??</v>
       </c>
@@ -5575,11 +5598,11 @@
       <c r="M18" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="309" t="str">
+      <c r="O18" s="308" t="str">
         <f>C19</f>
         <v>PTV - V90 (%)</v>
       </c>
-      <c r="P18" s="315" t="str">
+      <c r="P18" s="314" t="str">
         <f>G19</f>
         <v>??</v>
       </c>
@@ -5608,11 +5631,11 @@
       <c r="M19" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="309" t="str">
+      <c r="O19" s="308" t="str">
         <f>CONCATENATE(C21," ",D21)</f>
         <v>Location V105% - PTV (cc) =</v>
       </c>
-      <c r="P19" s="318" t="str">
+      <c r="P19" s="317" t="str">
         <f>G21</f>
         <v>??</v>
       </c>
@@ -5632,11 +5655,11 @@
       <c r="K20" s="130"/>
       <c r="L20" s="14"/>
       <c r="M20" s="88"/>
-      <c r="O20" s="309" t="str">
+      <c r="O20" s="308" t="str">
         <f>CONCATENATE(C22," ",D22)</f>
         <v>Volume V100% (cc) =</v>
       </c>
-      <c r="P20" s="318" t="str">
+      <c r="P20" s="317" t="str">
         <f>G22</f>
         <v>??</v>
       </c>
@@ -5672,11 +5695,11 @@
       <c r="M21" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="O21" s="309" t="str">
+      <c r="O21" s="308" t="str">
         <f>CONCATENATE(C24," ",D24)</f>
         <v>Location D³2cm (%) =</v>
       </c>
-      <c r="P21" s="319" t="str">
+      <c r="P21" s="318" t="str">
         <f>G24</f>
         <v>??</v>
       </c>
@@ -5714,11 +5737,11 @@
       <c r="M22" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="O22" s="309" t="str">
+      <c r="O22" s="308" t="str">
         <f>C25</f>
         <v>Volume</v>
       </c>
-      <c r="P22" s="319" t="str">
+      <c r="P22" s="318" t="str">
         <f>G25</f>
         <v xml:space="preserve"> ??</v>
       </c>
@@ -5738,11 +5761,11 @@
       <c r="K23" s="120"/>
       <c r="L23" s="11"/>
       <c r="M23" s="88"/>
-      <c r="O23" s="309" t="str">
+      <c r="O23" s="308" t="str">
         <f>C29</f>
         <v>Mean Dose (contralateral lung)</v>
       </c>
-      <c r="P23" s="319" t="str">
+      <c r="P23" s="318" t="str">
         <f>G29</f>
         <v>??</v>
       </c>
@@ -5776,11 +5799,11 @@
       <c r="M24" s="141" t="s">
         <v>191</v>
       </c>
-      <c r="O24" s="309" t="str">
+      <c r="O24" s="308" t="str">
         <f>C30</f>
         <v>Mean Dose (Total lung)</v>
       </c>
-      <c r="P24" s="319" t="str">
+      <c r="P24" s="318" t="str">
         <f>G30</f>
         <v>??</v>
       </c>
@@ -5819,11 +5842,11 @@
       <c r="M25" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="O25" s="309" t="str">
+      <c r="O25" s="308" t="str">
         <f>C31</f>
         <v>V20 (Total Lung) in %</v>
       </c>
-      <c r="P25" s="319" t="str">
+      <c r="P25" s="318" t="str">
         <f>G31</f>
         <v>??</v>
       </c>
@@ -5849,11 +5872,11 @@
       </c>
       <c r="L26" s="146"/>
       <c r="M26" s="88"/>
-      <c r="O26" s="309" t="str">
+      <c r="O26" s="308" t="str">
         <f>CONCATENATE(C32," ",F32)</f>
         <v xml:space="preserve">Lung-Basic Function </v>
       </c>
-      <c r="P26" s="319" t="str">
+      <c r="P26" s="318" t="str">
         <f>G32</f>
         <v>??</v>
       </c>
@@ -5877,11 +5900,11 @@
       </c>
       <c r="L27" s="146"/>
       <c r="M27" s="88"/>
-      <c r="O27" s="309" t="str">
+      <c r="O27" s="308" t="str">
         <f>CONCATENATE(C33," ",F33)</f>
         <v xml:space="preserve">Lung-Pneumonitis </v>
       </c>
-      <c r="P27" s="319" t="str">
+      <c r="P27" s="318" t="str">
         <f>G33</f>
         <v>??</v>
       </c>
@@ -5903,11 +5926,11 @@
       <c r="K28" s="120"/>
       <c r="L28" s="11"/>
       <c r="M28" s="88"/>
-      <c r="O28" s="309" t="str">
+      <c r="O28" s="308" t="str">
         <f>CONCATENATE(C35," ",F35)</f>
         <v>Aorta  (max point dose)</v>
       </c>
-      <c r="P28" s="319" t="str">
+      <c r="P28" s="318" t="str">
         <f t="shared" ref="P28:P45" si="0">G35</f>
         <v>??</v>
       </c>
@@ -5931,11 +5954,11 @@
         <v>68</v>
       </c>
       <c r="M29" s="88"/>
-      <c r="O29" s="309" t="str">
+      <c r="O29" s="308" t="str">
         <f>CONCATENATE(C35," ",F36)</f>
         <v>Aorta  V40Gy=</v>
       </c>
-      <c r="P29" s="319" t="str">
+      <c r="P29" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -5959,11 +5982,11 @@
         <v>68</v>
       </c>
       <c r="M30" s="88"/>
-      <c r="O30" s="309" t="str">
+      <c r="O30" s="308" t="str">
         <f>CONCATENATE(C37," ",F37)</f>
         <v>Artery-Pulmonary (max point dose)</v>
       </c>
-      <c r="P30" s="319" t="str">
+      <c r="P30" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -5974,10 +5997,10 @@
         <v>120</v>
       </c>
       <c r="D31" s="97"/>
-      <c r="E31" s="324" t="s">
+      <c r="E31" s="326" t="s">
         <v>175</v>
       </c>
-      <c r="F31" s="325"/>
+      <c r="F31" s="327"/>
       <c r="G31" s="202" t="s">
         <v>68</v>
       </c>
@@ -5996,11 +6019,11 @@
       <c r="M31" s="235" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="309" t="str">
+      <c r="O31" s="308" t="str">
         <f>CONCATENATE(C37," ",F38)</f>
         <v>Artery-Pulmonary V40Gy=</v>
       </c>
-      <c r="P31" s="319" t="str">
+      <c r="P31" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6011,10 +6034,10 @@
         <v>66</v>
       </c>
       <c r="D32" s="97"/>
-      <c r="E32" s="324" t="s">
+      <c r="E32" s="326" t="s">
         <v>177</v>
       </c>
-      <c r="F32" s="325"/>
+      <c r="F32" s="327"/>
       <c r="G32" s="199" t="s">
         <v>68</v>
       </c>
@@ -6031,11 +6054,11 @@
       <c r="M32" s="238" t="s">
         <v>194</v>
       </c>
-      <c r="O32" s="309" t="str">
+      <c r="O32" s="308" t="str">
         <f>CONCATENATE(C39," ",F39)</f>
         <v>Spinal Canal (max point dose)</v>
       </c>
-      <c r="P32" s="319" t="str">
+      <c r="P32" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6046,10 +6069,10 @@
         <v>67</v>
       </c>
       <c r="D33" s="97"/>
-      <c r="E33" s="326" t="s">
+      <c r="E33" s="328" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="327"/>
+      <c r="F33" s="329"/>
       <c r="G33" s="170" t="s">
         <v>68</v>
       </c>
@@ -6066,11 +6089,11 @@
       <c r="M33" s="238" t="s">
         <v>194</v>
       </c>
-      <c r="O33" s="309" t="str">
+      <c r="O33" s="308" t="str">
         <f>CONCATENATE(C39," ",F40)</f>
         <v>Spinal Canal V20.8Gy=</v>
       </c>
-      <c r="P33" s="319" t="str">
+      <c r="P33" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6092,11 +6115,11 @@
       <c r="K34" s="120"/>
       <c r="L34" s="87"/>
       <c r="M34" s="88"/>
-      <c r="O34" s="309" t="str">
+      <c r="O34" s="308" t="str">
         <f>CONCATENATE(C39," ",F41)</f>
         <v>Spinal Canal V13.6Gy=</v>
       </c>
-      <c r="P34" s="319" t="str">
+      <c r="P34" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6129,11 +6152,11 @@
       <c r="M35" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="O35" s="309" t="str">
+      <c r="O35" s="308" t="str">
         <f>CONCATENATE(C42," ",F42)</f>
         <v>Spinal Canal-PRV 5mm (max point dose)</v>
       </c>
-      <c r="P35" s="319" t="str">
+      <c r="P35" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6167,11 +6190,11 @@
       <c r="M36" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="O36" s="309" t="str">
+      <c r="O36" s="308" t="str">
         <f>CONCATENATE(C43," ",F43)</f>
         <v>Ipsilat. Brach. Plex. (max point dose)</v>
       </c>
-      <c r="P36" s="319" t="str">
+      <c r="P36" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6204,11 +6227,11 @@
       <c r="M37" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="O37" s="309" t="str">
+      <c r="O37" s="308" t="str">
         <f>CONCATENATE(C43," ",F44)</f>
         <v>Ipsilat. Brach. Plex. V23.6Gy=</v>
       </c>
-      <c r="P37" s="319" t="str">
+      <c r="P37" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6240,11 +6263,11 @@
       <c r="M38" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="O38" s="309" t="str">
+      <c r="O38" s="308" t="str">
         <f>CONCATENATE(C45," ",F45)</f>
         <v>Skin V30Gy=</v>
       </c>
-      <c r="P38" s="319" t="str">
+      <c r="P38" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6277,11 +6300,11 @@
       <c r="M39" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="O39" s="309" t="str">
+      <c r="O39" s="308" t="str">
         <f>CONCATENATE(C46," ",F46)</f>
         <v>Heart (max point dose)</v>
       </c>
-      <c r="P39" s="319" t="str">
+      <c r="P39" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6289,10 +6312,10 @@
     <row r="40" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B40" s="95"/>
       <c r="C40" s="95"/>
-      <c r="D40" s="328" t="s">
+      <c r="D40" s="330" t="s">
         <v>196</v>
       </c>
-      <c r="E40" s="329"/>
+      <c r="E40" s="331"/>
       <c r="F40" s="246" t="s">
         <v>146</v>
       </c>
@@ -6313,11 +6336,11 @@
       <c r="M40" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="O40" s="309" t="str">
+      <c r="O40" s="308" t="str">
         <f>CONCATENATE(C46," ",F47)</f>
         <v>Heart V28Gy=</v>
       </c>
-      <c r="P40" s="319" t="str">
+      <c r="P40" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6349,11 +6372,11 @@
       <c r="M41" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="O41" s="309" t="str">
+      <c r="O41" s="308" t="str">
         <f>CONCATENATE(C48," ",F48)</f>
         <v>Esophagus (max point dose)</v>
       </c>
-      <c r="P41" s="319" t="str">
+      <c r="P41" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6382,11 +6405,11 @@
         <v>??</v>
       </c>
       <c r="M42" s="88"/>
-      <c r="O42" s="309" t="str">
+      <c r="O42" s="308" t="str">
         <f>CONCATENATE(C48," ",F49)</f>
         <v>Esophagus V18.8Gy=</v>
       </c>
-      <c r="P42" s="319" t="str">
+      <c r="P42" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6417,11 +6440,11 @@
       <c r="M43" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="O43" s="309" t="str">
+      <c r="O43" s="308" t="str">
         <f>CONCATENATE(C50," ",F50)</f>
         <v>*Chestwall (rib) (max point dose)</v>
       </c>
-      <c r="P43" s="319" t="str">
+      <c r="P43" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6455,11 +6478,11 @@
       <c r="M44" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="O44" s="309" t="str">
+      <c r="O44" s="308" t="str">
         <f>CONCATENATE(C50," ",F51)</f>
         <v>*Chestwall (rib) V40Gy=</v>
       </c>
-      <c r="P44" s="319" t="str">
+      <c r="P44" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6494,11 +6517,11 @@
       <c r="M45" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="O45" s="309" t="str">
+      <c r="O45" s="308" t="str">
         <f>CONCATENATE(C50," ",F52)</f>
         <v>*Chestwall (rib) V30Gy=</v>
       </c>
-      <c r="P45" s="319" t="str">
+      <c r="P45" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -6529,11 +6552,11 @@
       <c r="M46" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="O46" s="309" t="str">
+      <c r="O46" s="308" t="str">
         <f>CONCATENATE(A53," ",F53)</f>
         <v>Trachea (max point dose)</v>
       </c>
-      <c r="P46" s="320">
+      <c r="P46" s="319">
         <f>A54</f>
         <v>0</v>
       </c>
@@ -6567,11 +6590,11 @@
       <c r="M47" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="O47" s="309" t="str">
+      <c r="O47" s="308" t="str">
         <f>CONCATENATE(A53," ",F55)</f>
         <v>Trachea V15.6Gy=</v>
       </c>
-      <c r="P47" s="320">
+      <c r="P47" s="319">
         <f>A55</f>
         <v>0</v>
       </c>
@@ -6602,11 +6625,11 @@
       <c r="M48" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="O48" s="309" t="str">
+      <c r="O48" s="308" t="str">
         <f>CONCATENATE(B53," ",F53)</f>
         <v>Bronchus (max point dose)</v>
       </c>
-      <c r="P48" s="320">
+      <c r="P48" s="319">
         <f>B54</f>
         <v>0</v>
       </c>
@@ -6636,11 +6659,11 @@
         <v>??</v>
       </c>
       <c r="M49" s="88"/>
-      <c r="O49" s="309" t="str">
+      <c r="O49" s="308" t="str">
         <f>CONCATENATE(B53," ",F55)</f>
         <v>Bronchus V15.6Gy=</v>
       </c>
-      <c r="P49" s="320">
+      <c r="P49" s="319">
         <f>B55</f>
         <v>0</v>
       </c>
@@ -6671,11 +6694,11 @@
       <c r="M50" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="O50" s="309" t="str">
+      <c r="O50" s="308" t="str">
         <f>CONCATENATE(C53," ",C54," ",F53)</f>
         <v>Proximal Trachea and Bronchial Tree (max point dose)</v>
       </c>
-      <c r="P50" s="319" t="str">
+      <c r="P50" s="318" t="str">
         <f>G53</f>
         <v>??</v>
       </c>
@@ -6707,11 +6730,11 @@
       <c r="M51" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="O51" s="309" t="str">
+      <c r="O51" s="308" t="str">
         <f>CONCATENATE(C53," ",C54," ",F55)</f>
         <v>Proximal Trachea and Bronchial Tree V15.6Gy=</v>
       </c>
-      <c r="P51" s="319" t="str">
+      <c r="P51" s="318" t="str">
         <f>G55</f>
         <v>??</v>
       </c>
@@ -6745,20 +6768,20 @@
       <c r="M52" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="O52" s="309" t="str">
+      <c r="O52" s="308" t="str">
         <f>CONCATENATE(C56," ",C57," ",F56)</f>
         <v>Stomach and Intestines (max point dose)</v>
       </c>
-      <c r="P52" s="319" t="str">
+      <c r="P52" s="318" t="str">
         <f>G56</f>
         <v>??</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="300" t="s">
+      <c r="A53" s="299" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="301" t="s">
+      <c r="B53" s="300" t="s">
         <v>210</v>
       </c>
       <c r="C53" s="152" t="s">
@@ -6788,20 +6811,20 @@
       <c r="M53" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="O53" s="309" t="str">
+      <c r="O53" s="308" t="str">
         <f>CONCATENATE(C56," ",C57," ",F57)</f>
         <v>Stomach and Intestines V21Gy=</v>
       </c>
-      <c r="P53" s="319" t="str">
+      <c r="P53" s="318" t="str">
         <f>G57</f>
         <v>??</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="302">
+      <c r="A54" s="301">
         <v>0</v>
       </c>
-      <c r="B54" s="303">
+      <c r="B54" s="302">
         <v>0</v>
       </c>
       <c r="C54" s="95" t="s">
@@ -6819,20 +6842,20 @@
       <c r="K54" s="149"/>
       <c r="L54" s="258"/>
       <c r="M54" s="88"/>
-      <c r="O54" s="309" t="str">
+      <c r="O54" s="308" t="str">
         <f>C58</f>
         <v>Dosimetrist:</v>
       </c>
-      <c r="P54" s="313" t="str">
+      <c r="P54" s="312" t="str">
         <f>C59</f>
         <v>??</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="304">
+      <c r="A55" s="303">
         <v>0</v>
       </c>
-      <c r="B55" s="305">
+      <c r="B55" s="304">
         <v>0</v>
       </c>
       <c r="C55" s="180"/>
@@ -6862,11 +6885,11 @@
       <c r="M55" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="O55" s="309" t="str">
+      <c r="O55" s="308" t="str">
         <f>G58</f>
         <v>Physicist:</v>
       </c>
-      <c r="P55" s="313" t="str">
+      <c r="P55" s="312" t="str">
         <f>G59</f>
         <v>??</v>
       </c>
@@ -6897,11 +6920,11 @@
       <c r="M56" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="O56" s="309" t="str">
+      <c r="O56" s="308" t="str">
         <f>K58</f>
         <v>Radiation Oncologist:</v>
       </c>
-      <c r="P56" s="313" t="str">
+      <c r="P56" s="312" t="str">
         <f>K59</f>
         <v>??</v>
       </c>
@@ -6937,11 +6960,11 @@
       <c r="M57" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="O57" s="309" t="str">
+      <c r="O57" s="308" t="str">
         <f>B60</f>
         <v>NOTES:</v>
       </c>
-      <c r="P57" s="313">
+      <c r="P57" s="312">
         <f>C60</f>
         <v>0</v>
       </c>
@@ -7055,7 +7078,7 @@
       <c r="M63" s="88"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E31:F31"/>
@@ -7108,8 +7131,8 @@
   </sheetPr>
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7125,8 +7148,8 @@
     <col min="11" max="11" width="14.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="2" customWidth="1"/>
-    <col min="15" max="15" width="38.85546875" style="321" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="322" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.85546875" style="320" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="321" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7146,7 +7169,7 @@
       <c r="K1" s="215"/>
       <c r="L1" s="215"/>
       <c r="M1" s="88"/>
-      <c r="O1" s="308"/>
+      <c r="O1" s="307"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="83"/>
@@ -7163,7 +7186,7 @@
       <c r="K2" s="85"/>
       <c r="L2" s="87"/>
       <c r="M2" s="88"/>
-      <c r="O2" s="308"/>
+      <c r="O2" s="307"/>
     </row>
     <row r="3" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="90"/>
@@ -7180,7 +7203,7 @@
       <c r="K3" s="92"/>
       <c r="L3" s="94"/>
       <c r="M3" s="88"/>
-      <c r="O3" s="308"/>
+      <c r="O3" s="307"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="95"/>
@@ -7207,11 +7230,11 @@
         <v>68</v>
       </c>
       <c r="M4" s="88"/>
-      <c r="O4" s="309" t="str">
+      <c r="O4" s="308" t="str">
         <f>C4</f>
         <v>Patient:</v>
       </c>
-      <c r="P4" s="314" t="str">
+      <c r="P4" s="313" t="str">
         <f>D4</f>
         <v>??</v>
       </c>
@@ -7241,11 +7264,11 @@
         <v>68</v>
       </c>
       <c r="M5" s="88"/>
-      <c r="O5" s="309" t="str">
+      <c r="O5" s="308" t="str">
         <f>C5</f>
         <v>CR#:</v>
       </c>
-      <c r="P5" s="314" t="str">
+      <c r="P5" s="313" t="str">
         <f>D5</f>
         <v>??</v>
       </c>
@@ -7265,11 +7288,11 @@
       <c r="K6" s="85"/>
       <c r="L6" s="87"/>
       <c r="M6" s="88"/>
-      <c r="O6" s="309" t="str">
+      <c r="O6" s="308" t="str">
         <f>K4</f>
         <v>Site:</v>
       </c>
-      <c r="P6" s="314" t="str">
+      <c r="P6" s="313" t="str">
         <f>L4</f>
         <v>??</v>
       </c>
@@ -7291,11 +7314,11 @@
       <c r="K7" s="98"/>
       <c r="L7" s="101"/>
       <c r="M7" s="88"/>
-      <c r="O7" s="309" t="str">
+      <c r="O7" s="308" t="str">
         <f>K5</f>
         <v>Plan Name:</v>
       </c>
-      <c r="P7" s="314" t="str">
+      <c r="P7" s="313" t="str">
         <f>L5</f>
         <v>??</v>
       </c>
@@ -7319,11 +7342,11 @@
         <v>37</v>
       </c>
       <c r="M8" s="88"/>
-      <c r="O8" s="309" t="str">
+      <c r="O8" s="308" t="str">
         <f>F4</f>
         <v>Prescription Dose (cGy):</v>
       </c>
-      <c r="P8" s="314">
+      <c r="P8" s="313">
         <f>H4</f>
         <v>6000</v>
       </c>
@@ -7345,11 +7368,11 @@
       <c r="K9" s="98"/>
       <c r="L9" s="101"/>
       <c r="M9" s="88"/>
-      <c r="O9" s="309" t="str">
+      <c r="O9" s="308" t="str">
         <f>F5</f>
         <v>Fractions:</v>
       </c>
-      <c r="P9" s="314">
+      <c r="P9" s="313">
         <f>H5</f>
         <v>8</v>
       </c>
@@ -7371,11 +7394,11 @@
       <c r="K10" s="92"/>
       <c r="L10" s="94"/>
       <c r="M10" s="88"/>
-      <c r="O10" s="309" t="str">
+      <c r="O10" s="308" t="str">
         <f>C7</f>
         <v>GTV Volume (cc)</v>
       </c>
-      <c r="P10" s="314" t="str">
+      <c r="P10" s="313" t="str">
         <f>G7</f>
         <v>??</v>
       </c>
@@ -7403,11 +7426,11 @@
         <v>37</v>
       </c>
       <c r="M11" s="88"/>
-      <c r="O11" s="309" t="str">
+      <c r="O11" s="308" t="str">
         <f>C8</f>
         <v>ITV Volume (cc):</v>
       </c>
-      <c r="P11" s="315" t="str">
+      <c r="P11" s="314" t="str">
         <f>G8</f>
         <v>??</v>
       </c>
@@ -7437,11 +7460,11 @@
       <c r="M12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="309" t="str">
+      <c r="O12" s="308" t="str">
         <f>C9</f>
         <v>PTV Volume (cc)</v>
       </c>
-      <c r="P12" s="316" t="str">
+      <c r="P12" s="315" t="str">
         <f>G9</f>
         <v>??</v>
       </c>
@@ -7463,11 +7486,11 @@
       </c>
       <c r="L13" s="101"/>
       <c r="M13" s="88"/>
-      <c r="O13" s="309" t="str">
+      <c r="O13" s="308" t="str">
         <f>C10</f>
         <v>Total Lung Volume (cc)</v>
       </c>
-      <c r="P13" s="315" t="str">
+      <c r="P13" s="314" t="str">
         <f>G10</f>
         <v>??</v>
       </c>
@@ -7496,11 +7519,11 @@
       <c r="M14" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="309" t="str">
+      <c r="O14" s="308" t="str">
         <f>C14</f>
         <v>Plan Normalization Value (%)</v>
       </c>
-      <c r="P14" s="317" t="str">
+      <c r="P14" s="316" t="str">
         <f>G14</f>
         <v>??</v>
       </c>
@@ -7531,11 +7554,11 @@
       <c r="M15" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O15" s="309" t="str">
+      <c r="O15" s="308" t="str">
         <f>C15</f>
         <v>Dose @COM-PTV (cGy)</v>
       </c>
-      <c r="P15" s="317" t="str">
+      <c r="P15" s="316" t="str">
         <f>G15</f>
         <v>??</v>
       </c>
@@ -7555,11 +7578,11 @@
       <c r="K16" s="120"/>
       <c r="L16" s="11"/>
       <c r="M16" s="88"/>
-      <c r="O16" s="309" t="str">
+      <c r="O16" s="308" t="str">
         <f>C17</f>
         <v>PTV- Minimum Dose</v>
       </c>
-      <c r="P16" s="315" t="str">
+      <c r="P16" s="314" t="str">
         <f>G17</f>
         <v>??</v>
       </c>
@@ -7586,11 +7609,11 @@
         <v>??</v>
       </c>
       <c r="M17" s="88"/>
-      <c r="O17" s="309" t="str">
+      <c r="O17" s="308" t="str">
         <f>C18</f>
         <v>PTV - V100(%)</v>
       </c>
-      <c r="P17" s="315" t="str">
+      <c r="P17" s="314" t="str">
         <f>G18</f>
         <v>??</v>
       </c>
@@ -7619,11 +7642,11 @@
       <c r="M18" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="309" t="str">
+      <c r="O18" s="308" t="str">
         <f>C19</f>
         <v>PTV - V90 (%)</v>
       </c>
-      <c r="P18" s="315" t="str">
+      <c r="P18" s="314" t="str">
         <f>G19</f>
         <v>??</v>
       </c>
@@ -7652,11 +7675,11 @@
       <c r="M19" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="309" t="str">
+      <c r="O19" s="308" t="str">
         <f>CONCATENATE(C21," ",D21)</f>
         <v>Location V105% - PTV (cc) =</v>
       </c>
-      <c r="P19" s="318" t="str">
+      <c r="P19" s="317" t="str">
         <f>G21</f>
         <v>??</v>
       </c>
@@ -7676,11 +7699,11 @@
       <c r="K20" s="130"/>
       <c r="L20" s="14"/>
       <c r="M20" s="88"/>
-      <c r="O20" s="309" t="str">
+      <c r="O20" s="308" t="str">
         <f>CONCATENATE(C22," ",D22)</f>
         <v>Volume V100% (cc) =</v>
       </c>
-      <c r="P20" s="318" t="str">
+      <c r="P20" s="317" t="str">
         <f>G22</f>
         <v>??</v>
       </c>
@@ -7716,11 +7739,11 @@
       <c r="M21" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="O21" s="309" t="str">
+      <c r="O21" s="308" t="str">
         <f>CONCATENATE(C24," ",D24)</f>
         <v>Location D³2cm (%) =</v>
       </c>
-      <c r="P21" s="319" t="str">
+      <c r="P21" s="318" t="str">
         <f>G24</f>
         <v>??</v>
       </c>
@@ -7760,11 +7783,11 @@
       <c r="M22" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="O22" s="309" t="str">
-        <f>C25</f>
-        <v>Volume</v>
-      </c>
-      <c r="P22" s="319" t="str">
+      <c r="O22" s="308" t="str">
+        <f>CONCATENATE(C25," ",D25)</f>
+        <v>Volume V50% (cc) =</v>
+      </c>
+      <c r="P22" s="318" t="str">
         <f>G25</f>
         <v>??</v>
       </c>
@@ -7784,11 +7807,11 @@
       <c r="K23" s="120"/>
       <c r="L23" s="11"/>
       <c r="M23" s="88"/>
-      <c r="O23" s="309" t="str">
+      <c r="O23" s="308" t="str">
         <f>C29</f>
         <v>Mean Dose (contralateral lung)</v>
       </c>
-      <c r="P23" s="319" t="str">
+      <c r="P23" s="318" t="str">
         <f>G29</f>
         <v>??</v>
       </c>
@@ -7822,11 +7845,11 @@
       <c r="M24" s="141" t="s">
         <v>191</v>
       </c>
-      <c r="O24" s="309" t="str">
+      <c r="O24" s="308" t="str">
         <f>C30</f>
         <v>Mean Dose (Total lung)</v>
       </c>
-      <c r="P24" s="319" t="str">
+      <c r="P24" s="318" t="str">
         <f>G30</f>
         <v>??</v>
       </c>
@@ -7865,11 +7888,11 @@
       <c r="M25" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="O25" s="309" t="str">
+      <c r="O25" s="308" t="str">
         <f>C31</f>
         <v>V20 (Total Lung)</v>
       </c>
-      <c r="P25" s="319" t="str">
+      <c r="P25" s="318" t="str">
         <f>G31</f>
         <v>??</v>
       </c>
@@ -7895,11 +7918,11 @@
       </c>
       <c r="L26" s="146"/>
       <c r="M26" s="88"/>
-      <c r="O26" s="309" t="str">
+      <c r="O26" s="308" t="str">
         <f>CONCATENATE(C33," ",F33)</f>
         <v>Aorta  (max point dose)</v>
       </c>
-      <c r="P26" s="319" t="str">
+      <c r="P26" s="318" t="str">
         <f>G33</f>
         <v>??</v>
       </c>
@@ -7923,11 +7946,11 @@
       </c>
       <c r="L27" s="146"/>
       <c r="M27" s="88"/>
-      <c r="O27" s="309" t="str">
+      <c r="O27" s="308" t="str">
         <f>CONCATENATE(C33," ",F34)</f>
         <v>Aorta  V60Gy=</v>
       </c>
-      <c r="P27" s="319" t="str">
+      <c r="P27" s="318" t="str">
         <f t="shared" ref="P27:P37" si="0">G34</f>
         <v>??</v>
       </c>
@@ -7949,11 +7972,11 @@
       <c r="K28" s="120"/>
       <c r="L28" s="11"/>
       <c r="M28" s="88"/>
-      <c r="O28" s="309" t="str">
+      <c r="O28" s="308" t="str">
         <f>CONCATENATE(C35," ",F35)</f>
         <v>Artery-Pulmonary (max point dose)</v>
       </c>
-      <c r="P28" s="319" t="str">
+      <c r="P28" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -7977,11 +8000,11 @@
         <v>68</v>
       </c>
       <c r="M29" s="88"/>
-      <c r="O29" s="309" t="str">
+      <c r="O29" s="308" t="str">
         <f>CONCATENATE(C35," ",F36)</f>
         <v>Artery-Pulmonary V60Gy=</v>
       </c>
-      <c r="P29" s="319" t="str">
+      <c r="P29" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -8005,11 +8028,11 @@
         <v>68</v>
       </c>
       <c r="M30" s="88"/>
-      <c r="O30" s="309" t="str">
+      <c r="O30" s="308" t="str">
         <f>CONCATENATE(C37," ",F37)</f>
         <v>Spinal Canal (max point dose)</v>
       </c>
-      <c r="P30" s="319" t="str">
+      <c r="P30" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -8020,10 +8043,10 @@
         <v>27</v>
       </c>
       <c r="D31" s="91"/>
-      <c r="E31" s="326" t="s">
+      <c r="E31" s="328" t="s">
         <v>175</v>
       </c>
-      <c r="F31" s="327"/>
+      <c r="F31" s="329"/>
       <c r="G31" s="201" t="s">
         <v>68</v>
       </c>
@@ -8042,11 +8065,11 @@
       <c r="M31" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="309" t="str">
+      <c r="O31" s="308" t="str">
         <f>CONCATENATE(C38," ",F38)</f>
         <v>Ipsilat. Brach. Plex. (max point dose)</v>
       </c>
-      <c r="P31" s="319" t="str">
+      <c r="P31" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -8068,11 +8091,11 @@
       <c r="K32" s="129"/>
       <c r="L32" s="101"/>
       <c r="M32" s="88"/>
-      <c r="O32" s="309" t="str">
+      <c r="O32" s="308" t="str">
         <f>CONCATENATE(C38," ",F39)</f>
         <v>Ipsilat. Brach. Plex. V30Gy=</v>
       </c>
-      <c r="P32" s="319" t="str">
+      <c r="P32" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -8105,11 +8128,11 @@
       <c r="M33" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="O33" s="309" t="str">
+      <c r="O33" s="308" t="str">
         <f>CONCATENATE(C40," ",F40)</f>
         <v>Heart (max point dose)</v>
       </c>
-      <c r="P33" s="319" t="str">
+      <c r="P33" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -8139,11 +8162,11 @@
         <v>??</v>
       </c>
       <c r="M34" s="88"/>
-      <c r="O34" s="309" t="str">
+      <c r="O34" s="308" t="str">
         <f>CONCATENATE(C40," ",F41)</f>
         <v>Heart V60Gy=</v>
       </c>
-      <c r="P34" s="319" t="str">
+      <c r="P34" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -8174,11 +8197,11 @@
       <c r="M35" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="O35" s="309" t="str">
+      <c r="O35" s="308" t="str">
         <f>CONCATENATE(C42," ",F42)</f>
         <v>Esophagus (max point dose)</v>
       </c>
-      <c r="P35" s="319" t="str">
+      <c r="P35" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -8208,11 +8231,11 @@
         <v>??</v>
       </c>
       <c r="M36" s="88"/>
-      <c r="O36" s="309" t="str">
+      <c r="O36" s="308" t="str">
         <f>CONCATENATE(C43," ",F43)</f>
         <v>Chestwall (rib) (max point dose)</v>
       </c>
-      <c r="P36" s="319" t="str">
+      <c r="P36" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -8243,11 +8266,11 @@
       <c r="M37" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="O37" s="309" t="str">
+      <c r="O37" s="308" t="str">
         <f>CONCATENATE(C43," ",F44)</f>
         <v>Chestwall (rib) V50Gy=</v>
       </c>
-      <c r="P37" s="319" t="str">
+      <c r="P37" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -8278,11 +8301,11 @@
       <c r="M38" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="O38" s="309" t="str">
+      <c r="O38" s="308" t="str">
         <f>CONCATENATE(A44," ",F45)</f>
         <v>Trachea (max point dose)</v>
       </c>
-      <c r="P38" s="320">
+      <c r="P38" s="319">
         <f>A45</f>
         <v>0</v>
       </c>
@@ -8312,11 +8335,11 @@
         <v>??</v>
       </c>
       <c r="M39" s="141"/>
-      <c r="O39" s="309" t="str">
+      <c r="O39" s="308" t="str">
         <f>CONCATENATE(A44," ",F46)</f>
         <v>Trachea V60Gy =</v>
       </c>
-      <c r="P39" s="320">
+      <c r="P39" s="319">
         <f>A46</f>
         <v>0</v>
       </c>
@@ -8347,11 +8370,11 @@
       <c r="M40" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="O40" s="309" t="str">
+      <c r="O40" s="308" t="str">
         <f>CONCATENATE(B44," ",F45)</f>
         <v>Bronchus (max point dose)</v>
       </c>
-      <c r="P40" s="320">
+      <c r="P40" s="319">
         <f>B45</f>
         <v>0</v>
       </c>
@@ -8383,11 +8406,11 @@
       <c r="M41" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="O41" s="309" t="str">
+      <c r="O41" s="308" t="str">
         <f>CONCATENATE(B44," ",F48)</f>
         <v>Bronchus V36Gy=</v>
       </c>
-      <c r="P41" s="320">
+      <c r="P41" s="319">
         <f>B46</f>
         <v>0</v>
       </c>
@@ -8418,11 +8441,11 @@
       <c r="M42" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="O42" s="309" t="str">
+      <c r="O42" s="308" t="str">
         <f>CONCATENATE(C45," ",C46," ",F45)</f>
         <v>Proximal Trachea &amp; Bronch. Tree:  (max point dose)</v>
       </c>
-      <c r="P42" s="319" t="str">
+      <c r="P42" s="318" t="str">
         <f>G45</f>
         <v>??</v>
       </c>
@@ -8453,20 +8476,20 @@
       <c r="M43" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="O43" s="309" t="str">
+      <c r="O43" s="308" t="str">
         <f>CONCATENATE(C45," ",C46," ",F46)</f>
         <v>Proximal Trachea &amp; Bronch. Tree:  V60Gy =</v>
       </c>
-      <c r="P43" s="319" t="str">
+      <c r="P43" s="318" t="str">
         <f>G46</f>
         <v>??</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="300" t="s">
+      <c r="A44" s="299" t="s">
         <v>209</v>
       </c>
-      <c r="B44" s="301" t="s">
+      <c r="B44" s="300" t="s">
         <v>210</v>
       </c>
       <c r="C44" s="95"/>
@@ -8494,26 +8517,26 @@
       <c r="M44" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="O44" s="309" t="str">
+      <c r="O44" s="308" t="str">
         <f>CONCATENATE(C47," ",C48," ",F47)</f>
         <v>Stomach and  Intestines (max point dose)</v>
       </c>
-      <c r="P44" s="319" t="str">
+      <c r="P44" s="318" t="str">
         <f>G47</f>
         <v>??</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="302">
+      <c r="A45" s="301">
         <v>0</v>
       </c>
-      <c r="B45" s="303">
+      <c r="B45" s="302">
         <v>0</v>
       </c>
       <c r="C45" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="297"/>
+      <c r="D45" s="296"/>
       <c r="E45" s="108"/>
       <c r="F45" s="150" t="s">
         <v>62</v>
@@ -8522,7 +8545,7 @@
         <f>IF(MAX(A45:B45)&gt;0,MAX(A45:B45),"??")</f>
         <v>??</v>
       </c>
-      <c r="H45" s="298" t="s">
+      <c r="H45" s="297" t="s">
         <v>37</v>
       </c>
       <c r="I45" s="123"/>
@@ -8537,20 +8560,20 @@
       <c r="M45" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="O45" s="309" t="str">
+      <c r="O45" s="308" t="str">
         <f>CONCATENATE(C47," ",C48," ",F48)</f>
         <v>Stomach and  Intestines V36Gy=</v>
       </c>
-      <c r="P45" s="319" t="str">
+      <c r="P45" s="318" t="str">
         <f>G48</f>
         <v>??</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="304">
+      <c r="A46" s="303">
         <v>0</v>
       </c>
-      <c r="B46" s="305">
+      <c r="B46" s="304">
         <v>0</v>
       </c>
       <c r="C46" s="195" t="s">
@@ -8567,7 +8590,7 @@
         <f>IF(MAX(A46:B46)&gt;0,MAX(A46:B46),"??")</f>
         <v>??</v>
       </c>
-      <c r="H46" s="299" t="s">
+      <c r="H46" s="298" t="s">
         <v>37</v>
       </c>
       <c r="I46" s="97"/>
@@ -8582,11 +8605,11 @@
       <c r="M46" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="O46" s="309" t="str">
+      <c r="O46" s="308" t="str">
         <f>C49</f>
         <v>Dosimetrist:</v>
       </c>
-      <c r="P46" s="313" t="str">
+      <c r="P46" s="312" t="str">
         <f>C50</f>
         <v>??</v>
       </c>
@@ -8617,11 +8640,11 @@
       <c r="M47" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="O47" s="309" t="str">
+      <c r="O47" s="308" t="str">
         <f>G49</f>
         <v>Physicist:</v>
       </c>
-      <c r="P47" s="313" t="str">
+      <c r="P47" s="312" t="str">
         <f>G50</f>
         <v>??</v>
       </c>
@@ -8657,11 +8680,11 @@
       <c r="M48" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="O48" s="309" t="str">
+      <c r="O48" s="308" t="str">
         <f>K49</f>
         <v>Radiation Oncologist:</v>
       </c>
-      <c r="P48" s="313" t="str">
+      <c r="P48" s="312" t="str">
         <f>K50</f>
         <v>??</v>
       </c>
@@ -8687,11 +8710,11 @@
       </c>
       <c r="L49" s="101"/>
       <c r="M49" s="88"/>
-      <c r="O49" s="309" t="str">
+      <c r="O49" s="308" t="str">
         <f>B51</f>
         <v>NOTES:</v>
       </c>
-      <c r="P49" s="313">
+      <c r="P49" s="312">
         <f>C51</f>
         <v>0</v>
       </c>
@@ -8715,7 +8738,7 @@
       </c>
       <c r="L50" s="101"/>
       <c r="M50" s="88"/>
-      <c r="P50" s="321"/>
+      <c r="P50" s="320"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="102" t="s">
@@ -8732,7 +8755,7 @@
       <c r="K51" s="23"/>
       <c r="L51" s="18"/>
       <c r="M51" s="88"/>
-      <c r="P51" s="321"/>
+      <c r="P51" s="320"/>
     </row>
     <row r="52" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="90"/>
@@ -8749,7 +8772,7 @@
       <c r="K52" s="271"/>
       <c r="L52" s="273"/>
       <c r="M52" s="88"/>
-      <c r="P52" s="321"/>
+      <c r="P52" s="320"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="154" t="s">
@@ -8766,7 +8789,7 @@
       <c r="K53" s="155"/>
       <c r="L53" s="155"/>
       <c r="M53" s="88"/>
-      <c r="P53" s="321"/>
+      <c r="P53" s="320"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" s="89"/>
@@ -8781,7 +8804,7 @@
       <c r="K54" s="155"/>
       <c r="L54" s="155"/>
       <c r="M54" s="88"/>
-      <c r="P54" s="321"/>
+      <c r="P54" s="320"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55" s="89"/>
@@ -8796,7 +8819,7 @@
       <c r="K55" s="155"/>
       <c r="L55" s="155"/>
       <c r="M55" s="88"/>
-      <c r="P55" s="321"/>
+      <c r="P55" s="320"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56" s="89"/>
@@ -8811,23 +8834,23 @@
       <c r="K56" s="155"/>
       <c r="L56" s="155"/>
       <c r="M56" s="88"/>
-      <c r="P56" s="321"/>
+      <c r="P56" s="320"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M57" s="88"/>
-      <c r="P57" s="321"/>
+      <c r="P57" s="320"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="P58" s="321"/>
+      <c r="P58" s="320"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="P59" s="321"/>
+      <c r="P59" s="320"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="P60" s="321"/>
+      <c r="P60" s="320"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="1">
     <mergeCell ref="E31:F31"/>
   </mergeCells>
@@ -8885,8 +8908,8 @@
   </sheetPr>
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8904,8 +8927,8 @@
     <col min="11" max="11" width="13.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="2" customWidth="1"/>
-    <col min="15" max="15" width="52.42578125" style="307" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="310" customWidth="1"/>
+    <col min="15" max="15" width="52.42578125" style="306" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="309" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8925,7 +8948,7 @@
       <c r="K1" s="215"/>
       <c r="L1" s="215"/>
       <c r="M1" s="88"/>
-      <c r="O1" s="306"/>
+      <c r="O1" s="305"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="83"/>
@@ -8942,7 +8965,7 @@
       <c r="K2" s="85"/>
       <c r="L2" s="87"/>
       <c r="M2" s="88"/>
-      <c r="O2" s="306"/>
+      <c r="O2" s="305"/>
     </row>
     <row r="3" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="90"/>
@@ -8959,7 +8982,7 @@
       <c r="K3" s="92"/>
       <c r="L3" s="94"/>
       <c r="M3" s="88"/>
-      <c r="O3" s="306"/>
+      <c r="O3" s="305"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="95"/>
@@ -8986,11 +9009,11 @@
         <v>75</v>
       </c>
       <c r="M4" s="88"/>
-      <c r="O4" s="309" t="str">
+      <c r="O4" s="308" t="str">
         <f>C4</f>
         <v>Patient:</v>
       </c>
-      <c r="P4" s="311" t="str">
+      <c r="P4" s="310" t="str">
         <f>D4</f>
         <v>??</v>
       </c>
@@ -9020,11 +9043,11 @@
         <v>68</v>
       </c>
       <c r="M5" s="88"/>
-      <c r="O5" s="309" t="str">
+      <c r="O5" s="308" t="str">
         <f>C5</f>
         <v>CR#:</v>
       </c>
-      <c r="P5" s="312" t="str">
+      <c r="P5" s="311" t="str">
         <f>D5</f>
         <v>??</v>
       </c>
@@ -9044,11 +9067,11 @@
       <c r="K6" s="85"/>
       <c r="L6" s="87"/>
       <c r="M6" s="88"/>
-      <c r="O6" s="309" t="str">
+      <c r="O6" s="308" t="str">
         <f>K4</f>
         <v>Site:</v>
       </c>
-      <c r="P6" s="313" t="str">
+      <c r="P6" s="312" t="str">
         <f>L4</f>
         <v>LUNG</v>
       </c>
@@ -9070,11 +9093,11 @@
       <c r="K7" s="98"/>
       <c r="L7" s="101"/>
       <c r="M7" s="88"/>
-      <c r="O7" s="309" t="str">
+      <c r="O7" s="308" t="str">
         <f>K5</f>
         <v>Plan Name:</v>
       </c>
-      <c r="P7" s="312" t="str">
+      <c r="P7" s="311" t="str">
         <f>L5</f>
         <v>??</v>
       </c>
@@ -9096,11 +9119,11 @@
       <c r="K8" s="98"/>
       <c r="L8" s="101"/>
       <c r="M8" s="88"/>
-      <c r="O8" s="309" t="str">
+      <c r="O8" s="308" t="str">
         <f>F4</f>
         <v>Prescription Dose (cGy):</v>
       </c>
-      <c r="P8" s="311">
+      <c r="P8" s="310">
         <f>H4</f>
         <v>5400</v>
       </c>
@@ -9122,11 +9145,11 @@
       <c r="K9" s="98"/>
       <c r="L9" s="101"/>
       <c r="M9" s="88"/>
-      <c r="O9" s="309" t="str">
+      <c r="O9" s="308" t="str">
         <f>F5</f>
         <v>Fractions:</v>
       </c>
-      <c r="P9" s="314">
+      <c r="P9" s="313">
         <f>H5</f>
         <v>3</v>
       </c>
@@ -9148,11 +9171,11 @@
       <c r="K10" s="92"/>
       <c r="L10" s="94"/>
       <c r="M10" s="88"/>
-      <c r="O10" s="309" t="str">
+      <c r="O10" s="308" t="str">
         <f>C7</f>
         <v>GTV Volume (cc)</v>
       </c>
-      <c r="P10" s="315" t="str">
+      <c r="P10" s="314" t="str">
         <f>G7</f>
         <v>??</v>
       </c>
@@ -9180,11 +9203,11 @@
         <v>37</v>
       </c>
       <c r="M11" s="88"/>
-      <c r="O11" s="309" t="str">
+      <c r="O11" s="308" t="str">
         <f>C8</f>
         <v>ITV Volume (cc):</v>
       </c>
-      <c r="P11" s="315" t="str">
+      <c r="P11" s="314" t="str">
         <f>G8</f>
         <v>??</v>
       </c>
@@ -9214,11 +9237,11 @@
       <c r="M12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="309" t="str">
+      <c r="O12" s="308" t="str">
         <f>C9</f>
         <v>PTV Volume (cc)</v>
       </c>
-      <c r="P12" s="316" t="str">
+      <c r="P12" s="315" t="str">
         <f>G9</f>
         <v>??</v>
       </c>
@@ -9240,11 +9263,11 @@
       </c>
       <c r="L13" s="101"/>
       <c r="M13" s="88"/>
-      <c r="O13" s="309" t="str">
+      <c r="O13" s="308" t="str">
         <f>C10</f>
         <v>Total Lung Volume (cc)</v>
       </c>
-      <c r="P13" s="315" t="str">
+      <c r="P13" s="314" t="str">
         <f>G10</f>
         <v>??</v>
       </c>
@@ -9279,11 +9302,11 @@
       <c r="M14" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="309" t="str">
+      <c r="O14" s="308" t="str">
         <f>C14</f>
         <v>Plan Normalization Value (%)</v>
       </c>
-      <c r="P14" s="317" t="str">
+      <c r="P14" s="316" t="str">
         <f>H14</f>
         <v>??</v>
       </c>
@@ -9320,11 +9343,11 @@
       <c r="M15" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="O15" s="309" t="str">
+      <c r="O15" s="308" t="str">
         <f>C15</f>
         <v>Dose @COM-PTV (cGy)</v>
       </c>
-      <c r="P15" s="317" t="str">
+      <c r="P15" s="316" t="str">
         <f>G15</f>
         <v>??</v>
       </c>
@@ -9344,11 +9367,11 @@
       <c r="K16" s="120"/>
       <c r="L16" s="11"/>
       <c r="M16" s="88"/>
-      <c r="O16" s="309" t="str">
+      <c r="O16" s="308" t="str">
         <f>C17</f>
         <v>PTV- Minimum Dose</v>
       </c>
-      <c r="P16" s="315" t="str">
+      <c r="P16" s="314" t="str">
         <f>G17</f>
         <v>??</v>
       </c>
@@ -9381,11 +9404,11 @@
         <v>No</v>
       </c>
       <c r="M17" s="88"/>
-      <c r="O17" s="309" t="str">
+      <c r="O17" s="308" t="str">
         <f>C18</f>
         <v>PTV - V100(%)</v>
       </c>
-      <c r="P17" s="318" t="str">
+      <c r="P17" s="317" t="str">
         <f>H18</f>
         <v>??</v>
       </c>
@@ -9417,11 +9440,11 @@
       <c r="M18" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="O18" s="309" t="str">
+      <c r="O18" s="308" t="str">
         <f>C19</f>
         <v>PTV - V90 (%)</v>
       </c>
-      <c r="P18" s="318" t="str">
+      <c r="P18" s="317" t="str">
         <f>H19</f>
         <v>??</v>
       </c>
@@ -9453,11 +9476,11 @@
       <c r="M19" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="O19" s="309" t="str">
+      <c r="O19" s="308" t="str">
         <f>CONCATENATE(C21," ",D21)</f>
         <v>Location V105% - PTV (cc) =</v>
       </c>
-      <c r="P19" s="318" t="str">
+      <c r="P19" s="317" t="str">
         <f>G21</f>
         <v>??</v>
       </c>
@@ -9477,11 +9500,11 @@
       <c r="K20" s="130"/>
       <c r="L20" s="14"/>
       <c r="M20" s="88"/>
-      <c r="O20" s="309" t="str">
+      <c r="O20" s="308" t="str">
         <f>CONCATENATE(C22," ",D22)</f>
         <v>Volume V100% (cc) =</v>
       </c>
-      <c r="P20" s="318" t="str">
+      <c r="P20" s="317" t="str">
         <f>G22</f>
         <v>??</v>
       </c>
@@ -9517,11 +9540,11 @@
       <c r="M21" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="O21" s="309" t="str">
+      <c r="O21" s="308" t="str">
         <f>CONCATENATE(C24," ",D24)</f>
         <v>Location  D³2cm (%) =</v>
       </c>
-      <c r="P21" s="319" t="str">
+      <c r="P21" s="318" t="str">
         <f>G24</f>
         <v>??</v>
       </c>
@@ -9559,11 +9582,11 @@
       <c r="M22" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="O22" s="309" t="str">
+      <c r="O22" s="308" t="str">
         <f>C25</f>
         <v>Volume(R50)</v>
       </c>
-      <c r="P22" s="319" t="str">
+      <c r="P22" s="318" t="str">
         <f>G25</f>
         <v>??</v>
       </c>
@@ -9583,11 +9606,11 @@
       <c r="K23" s="120"/>
       <c r="L23" s="11"/>
       <c r="M23" s="88"/>
-      <c r="O23" s="309" t="str">
+      <c r="O23" s="308" t="str">
         <f>C29</f>
         <v>Mean Dose (contralateral lung)</v>
       </c>
-      <c r="P23" s="319" t="str">
+      <c r="P23" s="318" t="str">
         <f>G29</f>
         <v>??</v>
       </c>
@@ -9604,10 +9627,10 @@
       </c>
       <c r="E24" s="123"/>
       <c r="F24" s="132"/>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="324" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="173" t="str">
+      <c r="H24" s="323" t="str">
         <f>IFERROR(G24/H4,"??")</f>
         <v>??</v>
       </c>
@@ -9624,11 +9647,11 @@
       <c r="M24" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="O24" s="309" t="str">
+      <c r="O24" s="308" t="str">
         <f>C30</f>
         <v>Mean Dose (Total lung)</v>
       </c>
-      <c r="P24" s="319" t="str">
+      <c r="P24" s="318" t="str">
         <f>G30</f>
         <v>??</v>
       </c>
@@ -9645,10 +9668,10 @@
       <c r="F25" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="325" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="279" t="str">
+      <c r="H25" s="142" t="str">
         <f>IFERROR('Calculations 54Gy 3F'!J32,"??")</f>
         <v>??</v>
       </c>
@@ -9667,11 +9690,11 @@
       <c r="M25" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="O25" s="309" t="str">
+      <c r="O25" s="308" t="str">
         <f>C31</f>
         <v>V20 (Total Lung) in %</v>
       </c>
-      <c r="P25" s="319" t="str">
+      <c r="P25" s="318" t="str">
         <f>G31</f>
         <v>??</v>
       </c>
@@ -9697,11 +9720,11 @@
       </c>
       <c r="L26" s="146"/>
       <c r="M26" s="88"/>
-      <c r="O26" s="309" t="str">
+      <c r="O26" s="308" t="str">
         <f>CONCATENATE(C32," ",F32)</f>
         <v>Lung-Basic Function V11.6Gy=</v>
       </c>
-      <c r="P26" s="319" t="str">
+      <c r="P26" s="318" t="str">
         <f>G32</f>
         <v>??</v>
       </c>
@@ -9720,16 +9743,16 @@
       <c r="H27" s="277"/>
       <c r="I27" s="144"/>
       <c r="J27" s="144"/>
-      <c r="K27" s="280" t="s">
+      <c r="K27" s="279" t="s">
         <v>61</v>
       </c>
       <c r="L27" s="146"/>
       <c r="M27" s="88"/>
-      <c r="O27" s="309" t="str">
+      <c r="O27" s="308" t="str">
         <f>CONCATENATE(C33," ",F33)</f>
         <v>Lung-Pneumonitis V12.4Gy=</v>
       </c>
-      <c r="P27" s="319" t="str">
+      <c r="P27" s="318" t="str">
         <f>G33</f>
         <v>??</v>
       </c>
@@ -9751,11 +9774,11 @@
       <c r="K28" s="120"/>
       <c r="L28" s="11"/>
       <c r="M28" s="88"/>
-      <c r="O28" s="309" t="str">
+      <c r="O28" s="308" t="str">
         <f>CONCATENATE(C35," ",F35)</f>
         <v>Aorta  (max point dose)</v>
       </c>
-      <c r="P28" s="319" t="str">
+      <c r="P28" s="318" t="str">
         <f>G35</f>
         <v>??</v>
       </c>
@@ -9775,13 +9798,13 @@
       <c r="I29" s="123"/>
       <c r="J29" s="123"/>
       <c r="K29" s="17"/>
-      <c r="L29" s="281"/>
+      <c r="L29" s="280"/>
       <c r="M29" s="88"/>
-      <c r="O29" s="309" t="str">
+      <c r="O29" s="308" t="str">
         <f>CONCATENATE(C36," ",F35)</f>
         <v>Artery-Pulmnory (max point dose)</v>
       </c>
-      <c r="P29" s="319" t="str">
+      <c r="P29" s="318" t="str">
         <f t="shared" ref="P29:P38" si="0">G36</f>
         <v>??</v>
       </c>
@@ -9797,17 +9820,17 @@
       <c r="G30" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="282"/>
+      <c r="H30" s="281"/>
       <c r="I30" s="148"/>
       <c r="J30" s="148"/>
       <c r="K30" s="149"/>
-      <c r="L30" s="283"/>
+      <c r="L30" s="282"/>
       <c r="M30" s="88"/>
-      <c r="O30" s="309" t="str">
+      <c r="O30" s="308" t="str">
         <f>CONCATENATE(C37," ",F37)</f>
         <v>Spinal Canal (max point dose)</v>
       </c>
-      <c r="P30" s="319" t="str">
+      <c r="P30" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -9830,7 +9853,7 @@
       </c>
       <c r="I31" s="123"/>
       <c r="J31" s="123"/>
-      <c r="K31" s="284" t="str">
+      <c r="K31" s="283" t="str">
         <f ca="1">IFERROR('Calculations 54Gy 3F'!O27,"??")</f>
         <v>??</v>
       </c>
@@ -9841,11 +9864,11 @@
       <c r="M31" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="309" t="str">
+      <c r="O31" s="308" t="str">
         <f>CONCATENATE(C38," ",F37)</f>
         <v>Spinal Canal-PRV 5mm (max point dose)</v>
       </c>
-      <c r="P31" s="319" t="str">
+      <c r="P31" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -9868,7 +9891,7 @@
       </c>
       <c r="I32" s="123"/>
       <c r="J32" s="123"/>
-      <c r="K32" s="284">
+      <c r="K32" s="283">
         <v>1500</v>
       </c>
       <c r="L32" s="196" t="str">
@@ -9878,11 +9901,11 @@
       <c r="M32" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="O32" s="309" t="str">
+      <c r="O32" s="308" t="str">
         <f>CONCATENATE(C39," ",F39)</f>
         <v>Ipsilat Brach.Plex (max point dose)</v>
       </c>
-      <c r="P32" s="319" t="str">
+      <c r="P32" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -9915,11 +9938,11 @@
       <c r="M33" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="O33" s="309" t="str">
+      <c r="O33" s="308" t="str">
         <f>CONCATENATE(C40," ",F40)</f>
         <v>Skin V30Gy=</v>
       </c>
-      <c r="P33" s="319" t="str">
+      <c r="P33" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -9941,11 +9964,11 @@
       <c r="K34" s="120"/>
       <c r="L34" s="87"/>
       <c r="M34" s="88"/>
-      <c r="O34" s="309" t="str">
+      <c r="O34" s="308" t="str">
         <f>CONCATENATE(C41," ",F41)</f>
         <v>Heart (max point dose)</v>
       </c>
-      <c r="P34" s="319" t="str">
+      <c r="P34" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -9976,11 +9999,11 @@
         <v>No</v>
       </c>
       <c r="M35" s="88"/>
-      <c r="O35" s="309" t="str">
+      <c r="O35" s="308" t="str">
         <f>CONCATENATE(C42," ",F42)</f>
         <v>Esophagus (max point dose)</v>
       </c>
-      <c r="P35" s="319" t="str">
+      <c r="P35" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -10007,11 +10030,11 @@
         <v>No</v>
       </c>
       <c r="M36" s="88"/>
-      <c r="O36" s="309" t="str">
+      <c r="O36" s="308" t="str">
         <f>CONCATENATE(C43," ",F43)</f>
         <v>*Chestwall (rib) (max point dose)</v>
       </c>
-      <c r="P36" s="319" t="str">
+      <c r="P36" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -10029,7 +10052,7 @@
       <c r="G37" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="285" t="s">
+      <c r="H37" s="284" t="s">
         <v>37</v>
       </c>
       <c r="I37" s="108"/>
@@ -10044,11 +10067,11 @@
       <c r="M37" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="O37" s="309" t="str">
+      <c r="O37" s="308" t="str">
         <f>CONCATENATE(C43," ",F44)</f>
         <v>*Chestwall (rib) V28.2Gy=</v>
       </c>
-      <c r="P37" s="319" t="str">
+      <c r="P37" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -10075,11 +10098,11 @@
         <v>No</v>
       </c>
       <c r="M38" s="88"/>
-      <c r="O38" s="309" t="str">
+      <c r="O38" s="308" t="str">
         <f>CONCATENATE(C43," ",F45)</f>
         <v>*Chestwall (rib) V30Gy=</v>
       </c>
-      <c r="P38" s="319" t="str">
+      <c r="P38" s="318" t="str">
         <f t="shared" si="0"/>
         <v>??</v>
       </c>
@@ -10091,7 +10114,7 @@
       </c>
       <c r="D39" s="108"/>
       <c r="E39" s="108"/>
-      <c r="F39" s="286" t="s">
+      <c r="F39" s="285" t="s">
         <v>62</v>
       </c>
       <c r="G39" s="5" t="s">
@@ -10110,50 +10133,50 @@
       <c r="M39" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="O39" s="309" t="str">
+      <c r="O39" s="308" t="str">
         <f>A46</f>
         <v>Trachea</v>
       </c>
-      <c r="P39" s="320">
+      <c r="P39" s="319">
         <f>A47</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B40" s="95"/>
-      <c r="C40" s="287" t="s">
+      <c r="C40" s="286" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="288" t="s">
+      <c r="D40" s="287" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="289"/>
-      <c r="F40" s="290" t="s">
+      <c r="E40" s="288"/>
+      <c r="F40" s="289" t="s">
         <v>158</v>
       </c>
       <c r="G40" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="H40" s="291" t="s">
+      <c r="H40" s="290" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="292"/>
-      <c r="J40" s="292"/>
-      <c r="K40" s="293">
+      <c r="I40" s="291"/>
+      <c r="J40" s="291"/>
+      <c r="K40" s="292">
         <v>10</v>
       </c>
-      <c r="L40" s="294" t="str">
+      <c r="L40" s="293" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="M40" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="O40" s="309" t="str">
+      <c r="O40" s="308" t="str">
         <f>B46</f>
         <v>Bronchus</v>
       </c>
-      <c r="P40" s="320">
+      <c r="P40" s="319">
         <f>B47</f>
         <v>0</v>
       </c>
@@ -10171,7 +10194,7 @@
       <c r="G41" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="285" t="s">
+      <c r="H41" s="284" t="s">
         <v>37</v>
       </c>
       <c r="I41" s="108"/>
@@ -10186,11 +10209,11 @@
       <c r="M41" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="O41" s="309" t="str">
+      <c r="O41" s="308" t="str">
         <f>CONCATENATE(C46," ",C47," ",F46)</f>
         <v>Proximal Trachea and Bronchial Tree (max point dose)</v>
       </c>
-      <c r="P41" s="319" t="str">
+      <c r="P41" s="318" t="str">
         <f>G46</f>
         <v>??</v>
       </c>
@@ -10221,11 +10244,11 @@
       <c r="M42" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="O42" s="309" t="str">
+      <c r="O42" s="308" t="str">
         <f>C48</f>
         <v>Dosimetrist:</v>
       </c>
-      <c r="P42" s="313" t="str">
+      <c r="P42" s="312" t="str">
         <f>C49</f>
         <v>??</v>
       </c>
@@ -10256,11 +10279,11 @@
       <c r="M43" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="O43" s="309" t="str">
+      <c r="O43" s="308" t="str">
         <f>G48</f>
         <v>Physicist:</v>
       </c>
-      <c r="P43" s="313" t="str">
+      <c r="P43" s="312" t="str">
         <f>G49</f>
         <v>??</v>
       </c>
@@ -10292,11 +10315,11 @@
       <c r="M44" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="O44" s="309" t="str">
+      <c r="O44" s="308" t="str">
         <f>J48</f>
         <v>Radiation Oncologist:</v>
       </c>
-      <c r="P44" s="313" t="str">
+      <c r="P44" s="312" t="str">
         <f>K49</f>
         <v>??</v>
       </c>
@@ -10304,13 +10327,13 @@
     <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="95"/>
       <c r="C45" s="95"/>
-      <c r="D45" s="295" t="s">
+      <c r="D45" s="294" t="s">
         <v>129</v>
       </c>
       <c r="E45" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="296" t="s">
+      <c r="F45" s="295" t="s">
         <v>121</v>
       </c>
       <c r="G45" s="7" t="str">
@@ -10328,20 +10351,20 @@
         <v>No</v>
       </c>
       <c r="M45" s="88"/>
-      <c r="O45" s="309" t="str">
+      <c r="O45" s="308" t="str">
         <f>B50</f>
         <v>NOTES:</v>
       </c>
-      <c r="P45" s="313">
+      <c r="P45" s="312">
         <f>C50</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="300" t="s">
+      <c r="A46" s="299" t="s">
         <v>209</v>
       </c>
-      <c r="B46" s="301" t="s">
+      <c r="B46" s="300" t="s">
         <v>210</v>
       </c>
       <c r="C46" s="152" t="s">
@@ -10371,13 +10394,13 @@
       <c r="M46" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="O46" s="306"/>
+      <c r="O46" s="305"/>
     </row>
     <row r="47" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="304">
+      <c r="A47" s="303">
         <v>0</v>
       </c>
-      <c r="B47" s="305">
+      <c r="B47" s="304">
         <v>0</v>
       </c>
       <c r="C47" s="95" t="s">
@@ -10395,7 +10418,7 @@
       <c r="K47" s="129"/>
       <c r="L47" s="14"/>
       <c r="M47" s="88"/>
-      <c r="O47" s="306"/>
+      <c r="O47" s="305"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B48" s="95"/>
@@ -10416,7 +10439,7 @@
       <c r="K48" s="85"/>
       <c r="L48" s="87"/>
       <c r="M48" s="88"/>
-      <c r="O48" s="306"/>
+      <c r="O48" s="305"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="95"/>
@@ -10437,7 +10460,7 @@
       </c>
       <c r="L49" s="101"/>
       <c r="M49" s="88"/>
-      <c r="O49" s="306"/>
+      <c r="O49" s="305"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="102" t="s">
@@ -10454,7 +10477,7 @@
       <c r="K50" s="23"/>
       <c r="L50" s="18"/>
       <c r="M50" s="88"/>
-      <c r="O50" s="306"/>
+      <c r="O50" s="305"/>
     </row>
     <row r="51" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="90"/>
@@ -10473,7 +10496,7 @@
       <c r="K51" s="261"/>
       <c r="L51" s="263"/>
       <c r="M51" s="88"/>
-      <c r="O51" s="306"/>
+      <c r="O51" s="305"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="154" t="s">
@@ -10490,7 +10513,7 @@
       <c r="K52" s="155"/>
       <c r="L52" s="155"/>
       <c r="M52" s="88"/>
-      <c r="O52" s="306"/>
+      <c r="O52" s="305"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="89"/>
@@ -10505,7 +10528,7 @@
       <c r="K53" s="155"/>
       <c r="L53" s="155"/>
       <c r="M53" s="88"/>
-      <c r="O53" s="306"/>
+      <c r="O53" s="305"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F55" s="167"/>
@@ -10531,7 +10554,7 @@
   <dimension ref="C1:Q43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11525,7 +11548,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -12544,105 +12567,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H2:P16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="8:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H2" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="P2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="O3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="8:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="O5" s="80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="8:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="O6" s="80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="L8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C1:Q43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13636,10 +13565,104 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H2:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="8:16" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H2" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="8:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="O5" s="80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="8:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="O6" s="80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="L8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>